--- a/08_Folkehelse og levekår/Oppvekst og levekår/12272_Minoritetsbarn i bhg.xlsx
+++ b/08_Folkehelse og levekår/Oppvekst og levekår/12272_Minoritetsbarn i bhg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/even_sannes_riiser_vtfk_no/Documents/Github/Vestfold/Data/08_Folkehelse og levekår/Oppvekst og levekår/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/kjetil_gunnerud_kristoffersen_vestfoldfylke_no/Documents/Dokumenter/GitHub2/Vestfold/08_Folkehelse og levekår/Oppvekst og levekår/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_86CA96B310D76FA0FB0C87E234B6B423D6076F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7CB0E4-16E6-443D-8644-F7D6E15FBD6E}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_86CA96B310D76FA0FB0C87E234B6B423D6076F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{767FD171-7F4F-4314-A01B-97F76B79BD1E}"/>
   <bookViews>
-    <workbookView xWindow="19305" yWindow="30" windowWidth="38175" windowHeight="20925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vestfold" sheetId="2" r:id="rId1"/>
@@ -313,22 +313,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,34 +624,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13:U20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="104.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="104.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="9.1796875" customWidth="1"/>
+    <col min="23" max="23" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -680,42 +673,54 @@
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2">
+        <v>2022</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="2">
+        <v>2022</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="V4" t="s">
         <v>69</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>70</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>71</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -740,13 +745,13 @@
       <c r="H5" s="4">
         <v>1148</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
+      <c r="I5" s="4">
+        <v>1115</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="3">
         <v>0</v>
       </c>
@@ -756,27 +761,39 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <v>265</v>
       </c>
-      <c r="P5" s="4">
+      <c r="R5" s="4">
         <v>252</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="4">
+        <v>225</v>
+      </c>
+      <c r="T5" s="4">
+        <v>215</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>12034</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>1533</v>
       </c>
-      <c r="V5" s="5">
-        <f>U5/T5*100</f>
+      <c r="Y5" s="5">
+        <f>X5/W5*100</f>
         <v>12.738906431776634</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -801,13 +818,13 @@
       <c r="H6" s="4">
         <v>1261</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
+      <c r="I6" s="4">
+        <v>1233</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1242</v>
+      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="3">
         <v>0</v>
       </c>
@@ -817,27 +834,39 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <v>188</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="4">
         <v>204</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="4">
+        <v>224</v>
+      </c>
+      <c r="T6" s="4">
+        <v>244</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>12002</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <v>1683</v>
       </c>
-      <c r="V6" s="5">
-        <f t="shared" ref="V6:V11" si="0">U6/T6*100</f>
+      <c r="Y6" s="5">
+        <f t="shared" ref="Y6:Y12" si="0">X6/W6*100</f>
         <v>14.022662889518415</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -862,13 +891,13 @@
       <c r="H7" s="4">
         <v>2752</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
+      <c r="I7" s="4">
+        <v>2795</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2795</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="3">
         <v>0</v>
       </c>
@@ -878,27 +907,39 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>432</v>
       </c>
-      <c r="P7" s="4">
+      <c r="R7" s="4">
         <v>431</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="4">
+        <v>469</v>
+      </c>
+      <c r="T7" s="4">
+        <v>473</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>11994</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>1847</v>
       </c>
-      <c r="V7" s="5">
+      <c r="Y7" s="5">
         <f t="shared" si="0"/>
         <v>15.399366349841587</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -923,13 +964,13 @@
       <c r="H8" s="4">
         <v>3061</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
+      <c r="I8" s="4">
+        <v>3074</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3008</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -939,27 +980,39 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>632</v>
       </c>
-      <c r="P8" s="4">
+      <c r="R8" s="4">
         <v>639</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="4">
+        <v>665</v>
+      </c>
+      <c r="T8" s="4">
+        <v>659</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>11943</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>1946</v>
       </c>
-      <c r="V8" s="5">
+      <c r="Y8" s="5">
         <f t="shared" si="0"/>
         <v>16.294063468140333</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -984,13 +1037,13 @@
       <c r="H9" s="4">
         <v>2147</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
+      <c r="I9" s="4">
+        <v>2137</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2091</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -1000,27 +1053,39 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
         <v>377</v>
       </c>
-      <c r="P9" s="4">
+      <c r="R9" s="4">
         <v>370</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="4">
+        <v>387</v>
+      </c>
+      <c r="T9" s="4">
+        <v>390</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>11779</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>2000</v>
       </c>
-      <c r="V9" s="5">
+      <c r="Y9" s="5">
         <f t="shared" si="0"/>
         <v>16.979370065370574</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1045,13 +1110,13 @@
       <c r="H10" s="4">
         <v>1247</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
+      <c r="I10" s="4">
+        <v>1243</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1247</v>
+      </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -1061,27 +1126,39 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <v>167</v>
       </c>
-      <c r="P10" s="4">
+      <c r="R10" s="4">
         <v>160</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="4">
+        <v>152</v>
+      </c>
+      <c r="T10" s="4">
+        <v>162</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>11624</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>2061</v>
       </c>
-      <c r="V10" s="5">
+      <c r="Y10" s="5">
         <f t="shared" si="0"/>
         <v>17.730557467309016</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1091,1019 +1168,1158 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="S11" s="2" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="V11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>11616</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>2056</v>
       </c>
-      <c r="V11" s="5">
-        <f t="shared" si="0"/>
+      <c r="Y11" s="5">
+        <f>X11/W11*100</f>
         <v>17.699724517906336</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="V12">
+        <v>2022</v>
+      </c>
+      <c r="W12">
+        <v>11597</v>
+      </c>
+      <c r="X12">
+        <v>2122</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>X12/W12*100</f>
+        <v>18.297835647150126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>1294</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>1297</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>1273</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>1255</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>1212</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4">
         <v>166</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M13" s="4">
         <v>185</v>
       </c>
-      <c r="L12" s="4">
+      <c r="N13" s="4">
         <v>203</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O13" s="4">
         <v>237</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P13" s="4">
         <v>253</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="V13">
+        <v>2023</v>
+      </c>
+      <c r="W13">
+        <v>11483</v>
+      </c>
+      <c r="X13">
+        <v>2143</v>
+      </c>
+      <c r="Y13" s="5">
+        <f>X13/W13*100</f>
+        <v>18.662370460681007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>543</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>550</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>557</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4">
         <v>63</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M14" s="4">
         <v>70</v>
       </c>
-      <c r="L13" s="4">
+      <c r="N14" s="4">
         <v>76</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2188</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2230</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2352</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2300</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2255</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4">
+        <v>269</v>
+      </c>
+      <c r="M15" s="4">
+        <v>293</v>
+      </c>
+      <c r="N15" s="4">
+        <v>345</v>
+      </c>
+      <c r="O15" s="4">
+        <v>364</v>
+      </c>
+      <c r="P15" s="4">
+        <v>331</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2227</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2229</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4">
+        <v>369</v>
+      </c>
+      <c r="M16" s="4">
+        <v>412</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2044</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1979</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4">
+        <v>296</v>
+      </c>
+      <c r="M17" s="4">
+        <v>301</v>
+      </c>
+      <c r="N17" s="4">
+        <v>325</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3"/>
+      <c r="V17" t="s">
         <v>69</v>
       </c>
-      <c r="T13" t="s">
+      <c r="W17" t="s">
         <v>74</v>
       </c>
-      <c r="U13" t="s">
+      <c r="X17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2188</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2230</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2352</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2300</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2255</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4">
-        <v>269</v>
-      </c>
-      <c r="K14" s="4">
-        <v>293</v>
-      </c>
-      <c r="L14" s="4">
-        <v>345</v>
-      </c>
-      <c r="M14" s="4">
-        <v>364</v>
-      </c>
-      <c r="N14" s="4">
-        <v>331</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3029</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3015</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3038</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>532</v>
+      </c>
+      <c r="O18" s="4">
+        <v>546</v>
+      </c>
+      <c r="P18" s="4">
+        <v>602</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="V18" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="5">
+      <c r="W18" s="5">
         <v>12.738906431776634</v>
       </c>
-      <c r="U14">
+      <c r="X18">
         <v>15.3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2227</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2229</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4">
-        <v>369</v>
-      </c>
-      <c r="K15" s="4">
-        <v>412</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4">
+        <v>262</v>
+      </c>
+      <c r="C19" s="4">
+        <v>268</v>
+      </c>
+      <c r="D19" s="4">
+        <v>264</v>
+      </c>
+      <c r="E19" s="4">
+        <v>253</v>
+      </c>
+      <c r="F19" s="4">
+        <v>243</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4">
+        <v>32</v>
+      </c>
+      <c r="N19" s="4">
+        <v>47</v>
+      </c>
+      <c r="O19" s="4">
+        <v>47</v>
+      </c>
+      <c r="P19" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="V19" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="5">
+      <c r="W19" s="5">
         <v>14.022662889518415</v>
       </c>
-      <c r="U15">
+      <c r="X19">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2044</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2001</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1979</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4">
-        <v>296</v>
-      </c>
-      <c r="K16" s="4">
-        <v>301</v>
-      </c>
-      <c r="L16" s="4">
-        <v>325</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2124</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2089</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>335</v>
+      </c>
+      <c r="P20" s="4">
+        <v>354</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="V20" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="5">
+      <c r="W20" s="5">
         <v>15.399366349841587</v>
       </c>
-      <c r="U16">
+      <c r="X20">
         <v>17.3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3029</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3015</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3038</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>532</v>
-      </c>
-      <c r="M17" s="4">
-        <v>546</v>
-      </c>
-      <c r="N17" s="4">
-        <v>602</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4">
+        <v>499</v>
+      </c>
+      <c r="C21" s="4">
+        <v>488</v>
+      </c>
+      <c r="D21" s="4">
+        <v>528</v>
+      </c>
+      <c r="E21" s="4">
+        <v>549</v>
+      </c>
+      <c r="F21" s="4">
+        <v>539</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4">
+        <v>56</v>
+      </c>
+      <c r="M21" s="4">
+        <v>69</v>
+      </c>
+      <c r="N21" s="4">
+        <v>73</v>
+      </c>
+      <c r="O21" s="4">
+        <v>78</v>
+      </c>
+      <c r="P21" s="4">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="V21" t="s">
         <v>6</v>
       </c>
-      <c r="T17" s="5">
+      <c r="W21" s="5">
         <v>16.294063468140333</v>
       </c>
-      <c r="U17">
+      <c r="X21">
         <v>18.3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4">
-        <v>262</v>
-      </c>
-      <c r="C18" s="4">
-        <v>268</v>
-      </c>
-      <c r="D18" s="4">
-        <v>264</v>
-      </c>
-      <c r="E18" s="4">
-        <v>253</v>
-      </c>
-      <c r="F18" s="4">
-        <v>243</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4">
+        <v>136</v>
+      </c>
+      <c r="C22" s="4">
+        <v>148</v>
+      </c>
+      <c r="D22" s="4">
+        <v>145</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4">
+        <v>18</v>
+      </c>
+      <c r="N22" s="4">
+        <v>23</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3"/>
+      <c r="V22" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="5">
+        <v>16.979370065370574</v>
+      </c>
+      <c r="X22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>721</v>
+      </c>
+      <c r="F23" s="4">
+        <v>696</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>105</v>
+      </c>
+      <c r="P23" s="4">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="V23" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="5">
+        <v>17.730557467309016</v>
+      </c>
+      <c r="X23">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4">
+        <v>493</v>
+      </c>
+      <c r="C24" s="4">
+        <v>498</v>
+      </c>
+      <c r="D24" s="4">
+        <v>494</v>
+      </c>
+      <c r="E24" s="4">
+        <v>506</v>
+      </c>
+      <c r="F24" s="4">
+        <v>484</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4">
+        <v>48</v>
+      </c>
+      <c r="M24" s="4">
+        <v>44</v>
+      </c>
+      <c r="N24" s="4">
+        <v>48</v>
+      </c>
+      <c r="O24" s="4">
+        <v>60</v>
+      </c>
+      <c r="P24" s="4">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="V24" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" s="5">
+        <v>17.699724517906336</v>
+      </c>
+      <c r="X24">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4">
+        <v>303</v>
+      </c>
+      <c r="C25" s="4">
+        <v>315</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4">
         <v>29</v>
       </c>
-      <c r="K18" s="4">
-        <v>32</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="M25" s="4">
+        <v>23</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="V25">
+        <v>2022</v>
+      </c>
+      <c r="W25" s="5">
+        <v>18.297835647150126</v>
+      </c>
+      <c r="X25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4">
+        <v>607</v>
+      </c>
+      <c r="C26" s="4">
+        <v>605</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4">
+        <v>57</v>
+      </c>
+      <c r="M26" s="4">
+        <v>68</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="V26">
+        <v>2023</v>
+      </c>
+      <c r="W26" s="5">
+        <v>18.662370460681007</v>
+      </c>
+      <c r="X26">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="4">
-        <v>47</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="B27" s="4">
+        <v>1146</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1089</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1080</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4">
+        <v>118</v>
+      </c>
+      <c r="M27" s="4">
+        <v>133</v>
+      </c>
+      <c r="N27" s="4">
+        <v>141</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="5">
-        <v>16.979370065370574</v>
-      </c>
-      <c r="U18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2124</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2089</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>335</v>
-      </c>
-      <c r="N19" s="4">
-        <v>354</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="B28" s="4">
+        <v>172</v>
+      </c>
+      <c r="C28" s="4">
+        <v>170</v>
+      </c>
+      <c r="D28" s="4">
+        <v>169</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4">
+        <v>22</v>
+      </c>
+      <c r="M28" s="4">
+        <v>24</v>
+      </c>
+      <c r="N28" s="4">
+        <v>26</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4">
+        <v>120</v>
+      </c>
+      <c r="C29" s="4">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4">
+        <v>124</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="4">
+        <v>6</v>
+      </c>
+      <c r="M29" s="4">
+        <v>11</v>
+      </c>
+      <c r="N29" s="4">
         <v>8</v>
       </c>
-      <c r="T19" s="5">
-        <v>17.730557467309016</v>
-      </c>
-      <c r="U19">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4">
-        <v>499</v>
-      </c>
-      <c r="C20" s="4">
-        <v>488</v>
-      </c>
-      <c r="D20" s="4">
-        <v>528</v>
-      </c>
-      <c r="E20" s="4">
-        <v>549</v>
-      </c>
-      <c r="F20" s="4">
-        <v>539</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4">
-        <v>56</v>
-      </c>
-      <c r="K20" s="4">
-        <v>69</v>
-      </c>
-      <c r="L20" s="4">
-        <v>73</v>
-      </c>
-      <c r="M20" s="4">
-        <v>78</v>
-      </c>
-      <c r="N20" s="4">
-        <v>75</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="5">
-        <v>17.699724517906336</v>
-      </c>
-      <c r="U20">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="4">
-        <v>136</v>
-      </c>
-      <c r="C21" s="4">
-        <v>148</v>
-      </c>
-      <c r="D21" s="4">
-        <v>145</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4">
-        <v>18</v>
-      </c>
-      <c r="L21" s="4">
-        <v>23</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>721</v>
-      </c>
-      <c r="F22" s="4">
-        <v>696</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>105</v>
-      </c>
-      <c r="N22" s="4">
-        <v>103</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4">
-        <v>493</v>
-      </c>
-      <c r="C23" s="4">
-        <v>498</v>
-      </c>
-      <c r="D23" s="4">
-        <v>494</v>
-      </c>
-      <c r="E23" s="4">
-        <v>506</v>
-      </c>
-      <c r="F23" s="4">
-        <v>484</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4">
-        <v>48</v>
-      </c>
-      <c r="K23" s="4">
-        <v>44</v>
-      </c>
-      <c r="L23" s="4">
-        <v>48</v>
-      </c>
-      <c r="M23" s="4">
-        <v>60</v>
-      </c>
-      <c r="N23" s="4">
-        <v>68</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="4">
-        <v>303</v>
-      </c>
-      <c r="C24" s="4">
-        <v>315</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4">
-        <v>29</v>
-      </c>
-      <c r="K24" s="4">
-        <v>23</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="4">
-        <v>607</v>
-      </c>
-      <c r="C25" s="4">
-        <v>605</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4">
-        <v>57</v>
-      </c>
-      <c r="K25" s="4">
-        <v>68</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1146</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1089</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1080</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4">
-        <v>118</v>
-      </c>
-      <c r="K26" s="4">
-        <v>133</v>
-      </c>
-      <c r="L26" s="4">
-        <v>141</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="4">
-        <v>172</v>
-      </c>
-      <c r="C27" s="4">
-        <v>170</v>
-      </c>
-      <c r="D27" s="4">
-        <v>169</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4">
-        <v>22</v>
-      </c>
-      <c r="K27" s="4">
-        <v>24</v>
-      </c>
-      <c r="L27" s="4">
-        <v>26</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="4">
-        <v>120</v>
-      </c>
-      <c r="C28" s="4">
-        <v>114</v>
-      </c>
-      <c r="D28" s="4">
-        <v>124</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4">
-        <v>6</v>
-      </c>
-      <c r="K28" s="4">
-        <v>11</v>
-      </c>
-      <c r="L28" s="4">
-        <v>8</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
         <v>1220</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>1223</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
         <v>174</v>
       </c>
-      <c r="N29" s="4">
+      <c r="P30" s="4">
         <v>166</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>SUM(B5:B30)</f>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <f>SUM(B5:B31)</f>
         <v>12034</v>
       </c>
-      <c r="C31">
-        <f t="shared" ref="C31:H31" si="1">SUM(C5:C30)</f>
+      <c r="C32">
+        <f t="shared" ref="C32:J32" si="1">SUM(C5:C31)</f>
         <v>12002</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>11994</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>11943</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>11779</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>11624</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>11616</v>
       </c>
-      <c r="J31">
-        <f>SUM(J5:J30)</f>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>11597</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>11483</v>
+      </c>
+      <c r="L32">
+        <f>SUM(L5:L31)</f>
         <v>1533</v>
       </c>
-      <c r="K31">
-        <f t="shared" ref="K31:P31" si="2">SUM(K5:K30)</f>
+      <c r="M32">
+        <f t="shared" ref="M32:T32" si="2">SUM(M5:M31)</f>
         <v>1683</v>
       </c>
-      <c r="L31">
+      <c r="N32">
         <f t="shared" si="2"/>
         <v>1847</v>
       </c>
-      <c r="M31">
+      <c r="O32">
         <f t="shared" si="2"/>
         <v>1946</v>
       </c>
-      <c r="N31">
+      <c r="P32">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="O31">
+      <c r="Q32">
         <f t="shared" si="2"/>
         <v>2061</v>
       </c>
-      <c r="P31">
+      <c r="R32">
         <f t="shared" si="2"/>
         <v>2056</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>2122</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>2143</v>
       </c>
     </row>
   </sheetData>
@@ -2116,31 +2332,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F8ADE-FA8D-4851-ADC3-81260F57D9D0}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2163,38 +2373,38 @@
         <v>9</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2219,25 +2429,25 @@
       <c r="H3" s="4">
         <v>1714</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
         <v>267</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="4">
         <v>249</v>
       </c>
       <c r="R3" s="2" t="s">
@@ -2254,7 +2464,7 @@
         <v>13.762580332242027</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2279,25 +2489,25 @@
       <c r="H4" s="4">
         <v>2547</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
         <v>556</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="4">
         <v>537</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -2314,7 +2524,7 @@
         <v>15.372327353158024</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2339,25 +2549,25 @@
       <c r="H5" s="4">
         <v>590</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
         <v>118</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="4">
         <v>114</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -2374,7 +2584,7 @@
         <v>16.128633271490415</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2399,25 +2609,25 @@
       <c r="H6" s="4">
         <v>91</v>
       </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
         <v>5</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="4">
         <v>7</v>
       </c>
       <c r="R6" s="2" t="s">
@@ -2434,7 +2644,7 @@
         <v>16.34980988593156</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2459,25 +2669,25 @@
       <c r="H7" s="4">
         <v>641</v>
       </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
         <v>74</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="4">
         <v>69</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -2494,7 +2704,7 @@
         <v>17.032755298651253</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2519,25 +2729,25 @@
       <c r="H8" s="4">
         <v>396</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <v>63</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="4">
         <v>66</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -2554,7 +2764,7 @@
         <v>17.432975003237921</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2579,25 +2789,25 @@
       <c r="H9" s="4">
         <v>166</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
         <v>25</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="4">
         <v>26</v>
       </c>
       <c r="R9" s="2" t="s">
@@ -2614,7 +2824,7 @@
         <v>17.065245645957887</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2639,29 +2849,29 @@
       <c r="H10" s="4">
         <v>292</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
         <v>54</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2686,38 +2896,38 @@
       <c r="H11" s="4">
         <v>486</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
         <v>83</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="4">
         <v>87</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" t="s">
         <v>69</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" t="s">
         <v>75</v>
       </c>
       <c r="T11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2742,28 +2952,28 @@
       <c r="H12" s="4">
         <v>170</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
         <v>25</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="4">
         <v>24</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="5">
@@ -2773,7 +2983,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2798,28 +3008,28 @@
       <c r="H13" s="4">
         <v>63</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
         <v>11</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="4">
         <v>11</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" t="s">
         <v>4</v>
       </c>
       <c r="S13" s="5">
@@ -2829,7 +3039,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2854,28 +3064,28 @@
       <c r="H14" s="4">
         <v>103</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
         <v>20</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="4">
         <v>17</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="5">
@@ -2885,7 +3095,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2910,28 +3120,28 @@
       <c r="H15" s="4">
         <v>94</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
         <v>5</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" t="s">
         <v>6</v>
       </c>
       <c r="S15" s="5">
@@ -2941,7 +3151,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -2966,28 +3176,28 @@
       <c r="H16" s="4">
         <v>62</v>
       </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
         <v>4</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="4">
         <v>4</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" t="s">
         <v>7</v>
       </c>
       <c r="S16" s="5">
@@ -2997,7 +3207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -3022,28 +3232,28 @@
       <c r="H17" s="4">
         <v>37</v>
       </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="10" t="s">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
         <v>8</v>
       </c>
       <c r="S17" s="5">
@@ -3053,7 +3263,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -3078,28 +3288,28 @@
       <c r="H18" s="4">
         <v>70</v>
       </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
         <v>8</v>
       </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10" t="s">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
         <v>9</v>
       </c>
       <c r="S18" s="5">
@@ -3109,7 +3319,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -3134,30 +3344,29 @@
       <c r="H19" s="4">
         <v>172</v>
       </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
         <v>33</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="4">
         <v>24</v>
       </c>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -3182,30 +3391,29 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="4">
         <v>188</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="4">
         <v>206</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="4">
         <v>215</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="4">
         <v>247</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="4">
         <v>261</v>
       </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -3230,30 +3438,30 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="4">
         <v>476</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="4">
         <v>496</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="4">
         <v>517</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="4">
         <v>506</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="4">
         <v>530</v>
       </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -3278,30 +3486,30 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="4">
         <v>88</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="4">
         <v>100</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="4">
         <v>114</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="4">
         <v>112</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="4">
         <v>123</v>
       </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
@@ -3326,30 +3534,30 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="4">
         <v>7</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="4">
         <v>5</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="4">
         <v>4</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="4">
         <v>6</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="4">
         <v>7</v>
       </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -3374,29 +3582,29 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="4">
         <v>68</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="4">
         <v>85</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="4">
         <v>84</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="4">
         <v>72</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="4">
         <v>65</v>
       </c>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -3421,29 +3629,29 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="4">
         <v>71</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="4">
         <v>73</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="4">
         <v>69</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="4">
         <v>68</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="4">
         <v>65</v>
       </c>
-      <c r="O25" s="8">
-        <v>0</v>
-      </c>
-      <c r="P25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -3468,29 +3676,29 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="4">
         <v>20</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="4">
         <v>25</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="4">
         <v>25</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="4">
         <v>18</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="4">
         <v>22</v>
       </c>
-      <c r="O26" s="8">
-        <v>0</v>
-      </c>
-      <c r="P26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -3515,29 +3723,29 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="4">
         <v>42</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="4">
         <v>52</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="4">
         <v>51</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="4">
         <v>55</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="4">
         <v>60</v>
       </c>
-      <c r="O27" s="8">
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3562,29 +3770,29 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="4">
         <v>43</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="4">
         <v>51</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="4">
         <v>50</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="4">
         <v>41</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="4">
         <v>44</v>
       </c>
-      <c r="O28" s="8">
-        <v>0</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3609,29 +3817,29 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="4">
         <v>21</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="4">
         <v>22</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="4">
         <v>29</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="4">
         <v>37</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="4">
         <v>34</v>
       </c>
-      <c r="O29" s="8">
-        <v>0</v>
-      </c>
-      <c r="P29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -3656,29 +3864,29 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="4">
         <v>44</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="4">
         <v>43</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="4">
         <v>48</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="4">
         <v>34</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="4">
         <v>33</v>
       </c>
-      <c r="O30" s="8">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -3703,29 +3911,29 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="4">
         <v>5</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="4">
         <v>9</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="4">
         <v>11</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="4">
         <v>11</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="4">
         <v>13</v>
       </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -3750,29 +3958,29 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="4">
         <v>18</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="4">
         <v>22</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="4">
         <v>18</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="4">
         <v>17</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="4">
         <v>20</v>
       </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -3797,29 +4005,29 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="4">
         <v>8</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="4">
         <v>8</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="4">
         <v>9</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="4">
         <v>7</v>
       </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -3844,29 +4052,29 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="4">
         <v>5</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="4">
         <v>6</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="4">
         <v>11</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="4">
         <v>10</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="4">
         <v>8</v>
       </c>
-      <c r="O34" s="8">
-        <v>0</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -3891,29 +4099,29 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="4">
         <v>11</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="4">
         <v>20</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="4">
         <v>16</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="4">
         <v>15</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="4">
         <v>5</v>
       </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -3938,29 +4146,29 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="4">
         <v>6</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="4">
         <v>10</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="4">
         <v>12</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="4">
         <v>10</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="4">
         <v>6</v>
       </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -3985,29 +4193,29 @@
       <c r="H37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="4">
         <v>14</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="4">
         <v>18</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="4">
         <v>21</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="4">
         <v>24</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="4">
         <v>30</v>
       </c>
-      <c r="O37" s="8">
-        <v>0</v>
-      </c>
-      <c r="P37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B38">
         <f>SUM(B3:B37)</f>
         <v>8247</v>
@@ -4065,7 +4273,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>8247</v>
       </c>
